--- a/rpa/range.xlsx
+++ b/rpa/range.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,39 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00ff0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00cc33ff"/>
+    </font>
+    <font>
+      <color rgb="000000ff"/>
+      <sz val="20"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <color rgb="00ff0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +65,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,131 +464,134 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>번호</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>99</v>
       </c>
     </row>
